--- a/专利查询和搜集/已处理/最终结果.xlsx
+++ b/专利查询和搜集/已处理/最终结果.xlsx
@@ -196,12 +196,6 @@
     <t>https://pdfpiw.uspto.gov/98/416/069/1.pdf</t>
   </si>
   <si>
-    <t>D647741</t>
-  </si>
-  <si>
-    <t>https://pdfpiw.uspto.gov/41/477/D06/1.pdf</t>
-  </si>
-  <si>
     <t>4908982</t>
   </si>
   <si>
@@ -308,6 +302,12 @@
   </si>
   <si>
     <t>https://pdfpiw.uspto.gov/63/718/D08/1.pdf</t>
+  </si>
+  <si>
+    <t>6557806</t>
+  </si>
+  <si>
+    <t>https://pdfpiw.uspto.gov/06/578/065/1.pdf</t>
   </si>
   <si>
     <t>7596905</t>
@@ -2672,7 +2672,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="D647741.png"/>
+        <xdr:cNvPr id="60" name="Picture 59" descr="4908982.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2710,7 +2710,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="D647741.png"/>
+        <xdr:cNvPr id="61" name="Picture 60" descr="4908982.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2748,7 +2748,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="4908982.png"/>
+        <xdr:cNvPr id="62" name="Picture 61" descr="4463855.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2786,7 +2786,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="4908982.png"/>
+        <xdr:cNvPr id="63" name="Picture 62" descr="4463855.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2824,7 +2824,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="4463855.png"/>
+        <xdr:cNvPr id="64" name="Picture 63" descr="D506160.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2862,7 +2862,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="4463855.png"/>
+        <xdr:cNvPr id="65" name="Picture 64" descr="D506160.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2900,7 +2900,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="D506160.png"/>
+        <xdr:cNvPr id="66" name="Picture 65" descr="D261454.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2938,7 +2938,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="D506160.png"/>
+        <xdr:cNvPr id="67" name="Picture 66" descr="D261454.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2976,7 +2976,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="D261454.png"/>
+        <xdr:cNvPr id="68" name="Picture 67" descr="9826846.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3014,7 +3014,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="D261454.png"/>
+        <xdr:cNvPr id="69" name="Picture 68" descr="9826846.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3052,7 +3052,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="9826846.png"/>
+        <xdr:cNvPr id="70" name="Picture 69" descr="4098483.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3090,7 +3090,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="9826846.png"/>
+        <xdr:cNvPr id="71" name="Picture 70" descr="4098483.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3128,7 +3128,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="4098483.png"/>
+        <xdr:cNvPr id="72" name="Picture 71" descr="D301012.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3166,7 +3166,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="4098483.png"/>
+        <xdr:cNvPr id="73" name="Picture 72" descr="D301012.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3204,7 +3204,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="D301012.png"/>
+        <xdr:cNvPr id="74" name="Picture 73" descr="D305587.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3242,7 +3242,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="D301012.png"/>
+        <xdr:cNvPr id="75" name="Picture 74" descr="D305587.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3280,7 +3280,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="D305587.png"/>
+        <xdr:cNvPr id="76" name="Picture 75" descr="4149339.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3318,7 +3318,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="D305587.png"/>
+        <xdr:cNvPr id="77" name="Picture 76" descr="4149339.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3356,7 +3356,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="4149339.png"/>
+        <xdr:cNvPr id="78" name="Picture 77" descr="7287736.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3394,7 +3394,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="4149339.png"/>
+        <xdr:cNvPr id="79" name="Picture 78" descr="7287736.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3432,7 +3432,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="7287736.png"/>
+        <xdr:cNvPr id="80" name="Picture 79" descr="D743777.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3470,7 +3470,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="7287736.png"/>
+        <xdr:cNvPr id="81" name="Picture 80" descr="D743777.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3508,7 +3508,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="D743777.png"/>
+        <xdr:cNvPr id="82" name="Picture 81" descr="D434641.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3546,7 +3546,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="D743777.png"/>
+        <xdr:cNvPr id="83" name="Picture 82" descr="D434641.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3584,7 +3584,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="D434641.png"/>
+        <xdr:cNvPr id="84" name="Picture 83" descr="D624394.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3622,7 +3622,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="D434641.png"/>
+        <xdr:cNvPr id="85" name="Picture 84" descr="D624394.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3660,7 +3660,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="D624394.png"/>
+        <xdr:cNvPr id="86" name="Picture 85" descr="7726072.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3698,7 +3698,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86" descr="D624394.png"/>
+        <xdr:cNvPr id="87" name="Picture 86" descr="7726072.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3736,7 +3736,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="7726072.png"/>
+        <xdr:cNvPr id="88" name="Picture 87" descr="D270796.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3774,7 +3774,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88" descr="7726072.png"/>
+        <xdr:cNvPr id="89" name="Picture 88" descr="D270796.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3812,7 +3812,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="D270796.png"/>
+        <xdr:cNvPr id="90" name="Picture 89" descr="D344867.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3850,7 +3850,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="D270796.png"/>
+        <xdr:cNvPr id="91" name="Picture 90" descr="D344867.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3888,7 +3888,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="D344867.png"/>
+        <xdr:cNvPr id="92" name="Picture 91" descr="D589719.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3926,7 +3926,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92" descr="D344867.png"/>
+        <xdr:cNvPr id="93" name="Picture 92" descr="D589719.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3964,7 +3964,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="D589719.png"/>
+        <xdr:cNvPr id="94" name="Picture 93" descr="D871863.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4002,7 +4002,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94" descr="D589719.png"/>
+        <xdr:cNvPr id="95" name="Picture 94" descr="D871863.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4040,7 +4040,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95" descr="D871863.png"/>
+        <xdr:cNvPr id="96" name="Picture 95" descr="6557806.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4078,7 +4078,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 96" descr="D871863.png"/>
+        <xdr:cNvPr id="97" name="Picture 96" descr="6557806.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
